--- a/Game_ts/excel/Game.xlsx
+++ b/Game_ts/excel/Game.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18135" windowHeight="9495" activeTab="1"/>
+    <workbookView windowWidth="18135" windowHeight="9495" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="参数" sheetId="1" r:id="rId1"/>
     <sheet name="玩家随机数据" sheetId="2" r:id="rId2"/>
+    <sheet name="测试" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>ID</t>
   </si>
@@ -84,6 +85,42 @@
   </si>
   <si>
     <t>初始金钱</t>
+  </si>
+  <si>
+    <t>key_1</t>
+  </si>
+  <si>
+    <t>key_2</t>
+  </si>
+  <si>
+    <t>key_3</t>
+  </si>
+  <si>
+    <t>key_4</t>
+  </si>
+  <si>
+    <t>key_5</t>
+  </si>
+  <si>
+    <t>key_6</t>
+  </si>
+  <si>
+    <t>key_7</t>
+  </si>
+  <si>
+    <t>key_8</t>
+  </si>
+  <si>
+    <t>key_9</t>
+  </si>
+  <si>
+    <t>key_10</t>
+  </si>
+  <si>
+    <t>key_11</t>
+  </si>
+  <si>
+    <t>key_12</t>
   </si>
 </sst>
 </file>
@@ -91,10 +128,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -111,15 +148,88 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF44546A"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF44546A"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF44546A"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -130,107 +240,34 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF44546A"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color rgb="FF44546A"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color rgb="FF44546A"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -244,73 +281,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED7D31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBDBDB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B084"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDEDED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9C9C9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD7EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AD47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CBAD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFE699"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF8CBAD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCE4D6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBDD7EE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB4C6E7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2EFDA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDBDBDB"/>
+        <fgColor rgb="FFC6E0B4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,103 +455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4472C4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5B9BD5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD966"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEDEDED"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA9D08E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFED7D31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC9C9C9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF70AD47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDEBF7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9BC2E6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6E0B4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9E1F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4B084"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,11 +469,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF5B9BD5"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,11 +501,27 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color rgb="FF5B9BD5"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF5B9BD5"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,39 +541,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFACCCEA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -529,6 +555,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF5B9BD5"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF5B9BD5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -537,10 +574,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,133 +586,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1143,8 +1180,8 @@
   <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" outlineLevelCol="2"/>
@@ -1279,4 +1316,162 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="2" max="3" width="7.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" ht="17.25" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" ht="17.25" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" ht="17.25" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" ht="17.25" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" ht="17.25" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" ht="17.25" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" ht="17.25" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" ht="17.25" spans="1:3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>